--- a/2022/Realme/May/01.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/01.05.2022/realme Bank Statement May-20222.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\May\01.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\May\01.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="May-2022" sheetId="7" r:id="rId1"/>
@@ -2526,6 +2526,12 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2535,6 +2541,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2562,12 +2580,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2580,12 +2592,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,12 +2704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3237,7 +3237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3256,29 +3256,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="274"/>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
+      <c r="A1" s="276"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="272" t="s">
+      <c r="B2" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -3341,7 +3341,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
-      <c r="B8" s="330" t="s">
+      <c r="B8" s="272" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="256">
@@ -3350,7 +3350,7 @@
       <c r="D8" s="256">
         <v>2700000</v>
       </c>
-      <c r="E8" s="331">
+      <c r="E8" s="273">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
@@ -4047,67 +4047,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="283" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="279"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="285"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4116,52 +4116,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="284" t="s">
+      <c r="D4" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="284" t="s">
+      <c r="F4" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="284" t="s">
+      <c r="G4" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="284" t="s">
+      <c r="I4" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="284" t="s">
+      <c r="J4" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="284" t="s">
+      <c r="K4" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="284" t="s">
+      <c r="L4" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="284" t="s">
+      <c r="M4" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="290" t="s">
+      <c r="N4" s="279" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="288" t="s">
+      <c r="O4" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="286" t="s">
+      <c r="P4" s="290" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4174,22 +4174,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="291"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="287"/>
+      <c r="A5" s="287"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="278"/>
+      <c r="N5" s="280"/>
+      <c r="O5" s="293"/>
+      <c r="P5" s="291"/>
       <c r="Q5" s="94" t="s">
         <v>35</v>
       </c>
@@ -7089,6 +7089,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7105,9 +7108,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7118,8 +7118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7145,14 +7145,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="301" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="301"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="303"/>
       <c r="L1" s="38"/>
       <c r="M1" s="141"/>
       <c r="N1" s="141"/>
@@ -7205,14 +7205,14 @@
       <c r="BI1" s="141"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
       <c r="L2" s="38"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
@@ -7265,14 +7265,14 @@
       <c r="BI2" s="141"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="305"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="K3" s="141"/>
       <c r="L3" s="38"/>
       <c r="M3" s="141"/>
@@ -9442,13 +9442,13 @@
       <c r="BI34" s="141"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="309" t="s">
+      <c r="A35" s="311" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="310"/>
-      <c r="C35" s="310"/>
-      <c r="D35" s="310"/>
-      <c r="E35" s="311"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="43"/>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
@@ -9507,12 +9507,12 @@
       <c r="BI35" s="141"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="306" t="s">
+      <c r="A36" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="307"/>
-      <c r="C36" s="307"/>
-      <c r="D36" s="308"/>
+      <c r="B36" s="309"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="310"/>
       <c r="E36" s="171">
         <f>F33-C119+K122</f>
         <v>-106410</v>
@@ -10009,15 +10009,15 @@
         <v>74</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="306" t="s">
+      <c r="F43" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="307"/>
-      <c r="H43" s="307"/>
-      <c r="I43" s="307"/>
-      <c r="J43" s="307"/>
-      <c r="K43" s="307"/>
-      <c r="L43" s="308"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="309"/>
+      <c r="L43" s="310"/>
       <c r="M43" s="141"/>
       <c r="N43" s="141"/>
       <c r="O43" s="141"/>
@@ -11649,10 +11649,10 @@
       <c r="C68" s="205"/>
       <c r="D68" s="210"/>
       <c r="E68" s="53"/>
-      <c r="F68" s="292" t="s">
+      <c r="F68" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="293"/>
+      <c r="G68" s="295"/>
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="74" t="s">
@@ -14840,10 +14840,10 @@
       <c r="BI118" s="141"/>
     </row>
     <row r="119" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A119" s="294" t="s">
+      <c r="A119" s="296" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="295"/>
+      <c r="B119" s="297"/>
       <c r="C119" s="219">
         <f>SUM(C37:C118)</f>
         <v>1121020</v>
@@ -14969,10 +14969,10 @@
       <c r="BI120" s="141"/>
     </row>
     <row r="121" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A121" s="296" t="s">
+      <c r="A121" s="298" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="297"/>
+      <c r="B121" s="299"/>
       <c r="C121" s="169" t="s">
         <v>11</v>
       </c>
@@ -15628,8 +15628,8 @@
       <c r="N155" s="143"/>
     </row>
     <row r="156" spans="5:14">
-      <c r="F156" s="298"/>
-      <c r="G156" s="298"/>
+      <c r="F156" s="300"/>
+      <c r="G156" s="300"/>
       <c r="H156" s="141"/>
       <c r="I156" s="51"/>
       <c r="J156" s="38"/>
@@ -16314,35 +16314,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="317" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="317"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="319"/>
       <c r="F1" s="183"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="328"/>
       <c r="F2" s="183"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="320"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="322"/>
       <c r="F3" s="183"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -16368,13 +16368,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="329"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="331"/>
       <c r="F4" s="183"/>
       <c r="G4" s="249" t="s">
         <v>94</v>
@@ -16880,13 +16880,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="321" t="s">
+      <c r="A20" s="323" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="322"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="323"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="324"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="325"/>
       <c r="F20" s="183"/>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
@@ -17070,13 +17070,13 @@
       <c r="G27" s="160"/>
     </row>
     <row r="28" spans="1:28" ht="22.5" thickBot="1">
-      <c r="A28" s="312" t="s">
+      <c r="A28" s="314" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="313"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="314"/>
+      <c r="B28" s="315"/>
+      <c r="C28" s="315"/>
+      <c r="D28" s="315"/>
+      <c r="E28" s="316"/>
       <c r="F28" s="160"/>
       <c r="G28" s="160"/>
       <c r="H28" s="1"/>
